--- a/회사 기술스택_0114.xlsx
+++ b/회사 기술스택_0114.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\국비관련 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Repository\Code_from_academy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1352,7 +1352,7 @@
   <dimension ref="C1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
